--- a/resources/templet/otherstaff.xlsx
+++ b/resources/templet/otherstaff.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\souvi\pm\pm\resources\templet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7830"/>
   </bookViews>
@@ -19,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>售后</t>
   </si>
   <si>
     <t>李二</t>
@@ -43,19 +45,427 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Z2-1899</t>
+    <t>岗位名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍性质</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号码</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同开始时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同结束时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业学校</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作年限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>户口所在地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+  </si>
+  <si>
+    <t>转正日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用期工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑补助</t>
+  </si>
+  <si>
+    <t>餐补(每天)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金(税前)</t>
+  </si>
+  <si>
+    <t>出差补助</t>
+  </si>
+  <si>
+    <t>社保种类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保缴纳单位</t>
+  </si>
+  <si>
+    <t>额外</t>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外支出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许发送信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同种类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同归属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参保城市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女教育</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续教育</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房贷款利息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房租金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7811019921012222X</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12312312321</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>231232341234</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>91243888</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>012-01-01</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>015-12-31</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sfcawevds</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络专业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.88</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX省</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-01-10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-01-08</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32423142142412@qq.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>131231231231231</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式合同</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华路合同</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外包二部</t>
+    <t>Z12-1899</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务主管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +496,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +547,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -124,13 +577,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,12 +624,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +735,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +770,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,66 +946,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AW1" sqref="AW1:AW1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="49" max="49" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"招聘,销售,售前,售后,项目管理,信息来源,行政,财务,领导,其他"</formula1>
     </dataValidation>
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK2">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AE1 AB2:AF2 K2 X2:Z2 AJ2 AL1:AW2 L1:U2 AG1:AI2 H1:J2"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1 AB1:AC1 Z1">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AG2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -503,12 +1292,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/templet/otherstaff.xlsx
+++ b/resources/templet/otherstaff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>姓名</t>
   </si>
@@ -459,6 +459,14 @@
   <si>
     <t>5</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部人员成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:AW1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -963,10 +971,11 @@
     <col min="11" max="11" width="10.625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="49" max="49" width="23.625" customWidth="1"/>
+    <col min="49" max="49" width="12.5" customWidth="1"/>
+    <col min="50" max="50" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,10 +1121,13 @@
         <v>48</v>
       </c>
       <c r="AW1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1253,21 +1265,27 @@
         <v>90</v>
       </c>
       <c r="AW2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="7" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"招聘,销售,售前,售后,项目管理,信息来源,行政,财务,领导,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK2">
       <formula1>"否,是"</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AE1 AB2:AF2 K2 X2:Z2 AJ2 AL1:AW2 L1:U2 AG1:AI2 H1:J2"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AE1 AB2:AF2 K2 X2:Z2 AJ2 H1:J2 L1:U2 AG1:AI2 AL1:AV2 AX1:AX2"/>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1 AB1:AC1 Z1">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW1048576">
+      <formula1>"总部人员成本,销售成本,部门管理成本"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
